--- a/___Administracion_Financiera_I_-Notas___/Ejercicio/Tarea2-DavidCorzo.xlsx
+++ b/___Administracion_Financiera_I_-Notas___/Ejercicio/Tarea2-DavidCorzo.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\4_Semestre-[Julio-Noviembre-2020]\____SumaDeCursosUFM2.2____\___Administracion_Financiera_I_-Notas___\Ejercicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2F7752-BC4C-42A9-A6F2-B519247E5AF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FBD5D7-6FD6-4D53-BAE7-1B22698F5D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
     <sheet name="balance" sheetId="2" r:id="rId2"/>
     <sheet name="estado r" sheetId="3" r:id="rId3"/>
     <sheet name="estado f e" sheetId="4" r:id="rId4"/>
+    <sheet name="estado u r" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t>Acciones en circulación</t>
   </si>
@@ -116,9 +117,6 @@
     <t>Pasivo no corriente</t>
   </si>
   <si>
-    <t>Total pasivo</t>
-  </si>
-  <si>
     <t>Capital</t>
   </si>
   <si>
@@ -140,15 +138,9 @@
     <t>Utilidad Bruta</t>
   </si>
   <si>
-    <t>Otros gastos</t>
-  </si>
-  <si>
     <t>Earnings before interest, taxes, depreciation and amortization</t>
   </si>
   <si>
-    <t>Depreciación</t>
-  </si>
-  <si>
     <t>Earnings before interest and tax</t>
   </si>
   <si>
@@ -171,6 +163,99 @@
   </si>
   <si>
     <t>Increase utilidades retenidas</t>
+  </si>
+  <si>
+    <t>David Corzo</t>
+  </si>
+  <si>
+    <t>Carne:</t>
+  </si>
+  <si>
+    <t>Nombre:</t>
+  </si>
+  <si>
+    <t>BALANCE GENERAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio por acción común </t>
+  </si>
+  <si>
+    <t>ESTADO DE FLUJOS DE EFECTIVO</t>
+  </si>
+  <si>
+    <t>Cash flow from operating activities</t>
+  </si>
+  <si>
+    <t>Net income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additions to net incom </t>
+  </si>
+  <si>
+    <t>Depreciation (change)</t>
+  </si>
+  <si>
+    <t>Increase in accounts payable</t>
+  </si>
+  <si>
+    <t>Increase in accruals</t>
+  </si>
+  <si>
+    <t>Subtractions from net income</t>
+  </si>
+  <si>
+    <t>Increase in accounts receivable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase in inventory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net cash flow from operations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash flows from long term investing activities </t>
+  </si>
+  <si>
+    <t>Acquisition of fixed assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash flows from financing activities </t>
+  </si>
+  <si>
+    <t>Increase in notes payable</t>
+  </si>
+  <si>
+    <t>Increase in bonds</t>
+  </si>
+  <si>
+    <t>Divident payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net cash flow from financing </t>
+  </si>
+  <si>
+    <t>Net change in cash</t>
+  </si>
+  <si>
+    <t>Cash at the beginning of the year</t>
+  </si>
+  <si>
+    <t>Cash at the end of the year</t>
+  </si>
+  <si>
+    <t>ESTADO DE UTILIDADES RETENIDAS 2019</t>
+  </si>
+  <si>
+    <t>Utilidades retenidas 2018</t>
+  </si>
+  <si>
+    <t>Utilidad neta 2019</t>
+  </si>
+  <si>
+    <t>Dividendos (-)</t>
+  </si>
+  <si>
+    <t>Utilidades retenidas 2019</t>
   </si>
 </sst>
 </file>
@@ -180,8 +265,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;Q&quot;* #,##0.00_-;\-&quot;Q&quot;* #,##0.00_-;_-&quot;Q&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="&quot;Q&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="&quot;Q&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -228,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -312,11 +397,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -332,21 +525,56 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,268 +855,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:E26"/>
+  <dimension ref="A2:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E26"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
-      <c r="D4" s="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>20190432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2">
         <v>2019</v>
       </c>
-      <c r="E4" s="2">
+      <c r="D5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="C6" s="4">
         <v>25</v>
       </c>
-      <c r="E5" s="4">
+      <c r="D6" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="3" t="s">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="C7" s="4">
         <v>300</v>
       </c>
-      <c r="E6" s="4">
+      <c r="D7" s="4">
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="16" t="s">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="17">
+      <c r="C8" s="15">
         <v>130</v>
       </c>
-      <c r="E7" s="17">
+      <c r="D8" s="15">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="3" t="s">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="C9" s="4">
         <v>1230</v>
       </c>
-      <c r="E8" s="4">
+      <c r="D9" s="4">
         <v>1176.7</v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="16" t="s">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="17">
+      <c r="C10" s="15">
         <v>180</v>
       </c>
-      <c r="E9" s="17">
+      <c r="D10" s="15">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="16" t="s">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="17">
+      <c r="C11" s="15">
         <v>30</v>
       </c>
-      <c r="E10" s="17">
+      <c r="D11" s="15">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="16" t="s">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="17">
+      <c r="C12" s="15">
         <v>300</v>
       </c>
-      <c r="E11" s="17">
+      <c r="D12" s="15">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="3" t="s">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="4">
+      <c r="C13" s="4">
         <v>50</v>
       </c>
-      <c r="E12" s="4">
+      <c r="D13" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="3" t="s">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4">
+      <c r="C14" s="4">
         <v>29</v>
       </c>
-      <c r="E13" s="4">
+      <c r="D14" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="3" t="s">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4">
+      <c r="C15" s="4">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E14" s="4">
+      <c r="D15" s="4">
         <v>1.08</v>
       </c>
     </row>
-    <row r="15" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="16" t="s">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="17">
+      <c r="C16" s="15">
         <v>40</v>
       </c>
-      <c r="E15" s="17">
+      <c r="D16" s="15">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="16" t="s">
+    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="17">
+      <c r="C17" s="15">
         <v>15</v>
       </c>
-      <c r="E16" s="17">
+      <c r="D17" s="15">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="3" t="s">
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="4">
+      <c r="C18" s="4">
         <v>60</v>
       </c>
-      <c r="E17" s="4">
+      <c r="D18" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="3" t="s">
+    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="4">
+      <c r="C19" s="4">
         <v>90</v>
       </c>
-      <c r="E18" s="4">
+      <c r="D19" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="3" t="s">
+    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="4">
+      <c r="C20" s="4">
         <v>36</v>
       </c>
-      <c r="E19" s="4">
+      <c r="D20" s="4">
         <v>39.6</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="3" t="s">
+    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="4">
+      <c r="C21" s="4">
         <v>40</v>
       </c>
-      <c r="E20" s="4">
+      <c r="D21" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="16" t="s">
+    <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="17">
+      <c r="C22" s="15">
         <v>270</v>
       </c>
-      <c r="E21" s="17">
+      <c r="D22" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="16" t="s">
+    <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17">
+      <c r="C23" s="15">
         <v>680</v>
       </c>
-      <c r="E22" s="17">
+      <c r="D23" s="15">
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="3" t="s">
+    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="4">
+      <c r="C24" s="4">
         <v>23</v>
       </c>
-      <c r="E23" s="4">
+      <c r="D24" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="3" t="s">
+    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="4">
+      <c r="C25" s="4">
         <v>2.16</v>
       </c>
-      <c r="E24" s="4">
+      <c r="D25" s="4">
         <v>2.36</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="16" t="s">
+    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="17">
+      <c r="C26" s="15">
         <v>285</v>
       </c>
-      <c r="E25" s="17">
+      <c r="D26" s="15">
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="3" t="s">
+    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="4">
+      <c r="C27" s="4">
         <v>1500</v>
       </c>
-      <c r="E26" s="4">
+      <c r="D27" s="4">
         <v>1435.8</v>
       </c>
     </row>
@@ -900,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B5B6D3-A95E-4678-AD90-B862C3FC71A9}">
-  <dimension ref="B3:H45"/>
+  <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,6 +1162,11 @@
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>22</v>
@@ -937,73 +1187,74 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="18">
         <v>270</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="18">
         <v>200</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="18">
         <v>40</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="18">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="18">
         <v>15</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="18">
         <v>40</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="18">
         <v>30</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="18">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="17">
-        <v>300</v>
-      </c>
-      <c r="D6" s="17">
-        <v>250</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C6" s="18">
         <v>180</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D6" s="18">
         <v>160</v>
       </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="20">
+        <v>60</v>
+      </c>
+      <c r="H6" s="20">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
@@ -1012,7 +1263,7 @@
       <c r="C8" s="5">
         <v>2019</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>2018</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1025,349 +1276,114 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="18">
         <v>680</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="18">
         <v>600</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="18">
+        <v>300</v>
+      </c>
+      <c r="H9" s="18">
+        <v>255</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="B10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="18">
+        <v>-300</v>
+      </c>
+      <c r="D10" s="18">
+        <v>-250</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="7">
-        <f>SUM(G9:G10)</f>
+      <c r="G11" s="5">
+        <v>2019</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="10"/>
+      <c r="F12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="18">
+        <v>130</v>
+      </c>
+      <c r="H12" s="18">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="10"/>
+      <c r="F13" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="18">
+        <v>285</v>
+      </c>
+      <c r="H13" s="18">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8">
+        <f>SUM(C4:C6)+SUM(C9:C10)</f>
+        <v>845</v>
+      </c>
+      <c r="D15" s="8">
+        <f>SUM(D4:D6)+SUM(D9:D10)</f>
+        <v>750</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="9">
+        <f>SUM(G4:G6)+SUM(G9)+SUM(G12:G13)</f>
+        <v>845</v>
+      </c>
+      <c r="H15" s="9">
+        <f>SUM(H4:H6)+SUM(H9)+SUM(H12:H13)</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="8">
+        <f>C15-G15</f>
         <v>0</v>
       </c>
-      <c r="H11" s="7">
-        <f>SUM(H9:H10)</f>
+      <c r="D17" s="8">
+        <f>D15-H15</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="5">
-        <v>2019</v>
-      </c>
-      <c r="H13" s="5">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="11"/>
-      <c r="F14" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="17">
-        <v>130</v>
-      </c>
-      <c r="H14" s="17">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="11"/>
-      <c r="F15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="17">
-        <v>285</v>
-      </c>
-      <c r="H15" s="17">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="9">
-        <f>C4+C5+C6+C9</f>
-        <v>1265</v>
-      </c>
-      <c r="D17" s="9">
-        <f>D4+D5+D6+D9</f>
-        <v>1090</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="10">
-        <f>G11+G14+G15</f>
-        <v>415</v>
-      </c>
-      <c r="H17" s="10">
-        <f>H11+H14+H15</f>
-        <v>390</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>25</v>
-      </c>
-      <c r="D24" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4">
-        <v>300</v>
-      </c>
-      <c r="D25" s="4">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="17">
-        <v>130</v>
-      </c>
-      <c r="D26" s="17">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1230</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1176.7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="17">
-        <v>180</v>
-      </c>
-      <c r="D28" s="17">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="17">
-        <v>30</v>
-      </c>
-      <c r="D29" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="17">
-        <v>300</v>
-      </c>
-      <c r="D30" s="17">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="4">
-        <v>50</v>
-      </c>
-      <c r="D31" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="4">
-        <v>29</v>
-      </c>
-      <c r="D32" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="17">
-        <v>40</v>
-      </c>
-      <c r="D34" s="17">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="17">
-        <v>15</v>
-      </c>
-      <c r="D35" s="17">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="4">
-        <v>60</v>
-      </c>
-      <c r="D36" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="4">
-        <v>90</v>
-      </c>
-      <c r="D37" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="4">
-        <v>36</v>
-      </c>
-      <c r="D38" s="4">
-        <v>39.6</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="4">
-        <v>40</v>
-      </c>
-      <c r="D39" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="17">
-        <v>270</v>
-      </c>
-      <c r="D40" s="17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="17">
-        <v>680</v>
-      </c>
-      <c r="D41" s="17">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="4">
-        <v>23</v>
-      </c>
-      <c r="D42" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="4">
-        <v>2.16</v>
-      </c>
-      <c r="D43" s="4">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="17">
-        <v>285</v>
-      </c>
-      <c r="D44" s="17">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="4">
-        <v>1500</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1435.8</v>
       </c>
     </row>
   </sheetData>
@@ -1377,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3693EACC-022C-48C6-B07D-409B08136E48}">
-  <dimension ref="B3:D19"/>
+  <dimension ref="B3:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,139 +1405,511 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="24"/>
+      <c r="C4" s="31">
+        <v>2019</v>
+      </c>
+      <c r="D4" s="32">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
         <v>30</v>
       </c>
+      <c r="C5" s="10">
+        <f>info!C27</f>
+        <v>1500</v>
+      </c>
+      <c r="D5" s="25">
+        <f>info!D27</f>
+        <v>1435.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="12">
+        <f>info!C9</f>
+        <v>1230</v>
+      </c>
+      <c r="D6" s="27">
+        <f>info!D9</f>
+        <v>1176.7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="10">
+        <f>C5-C6</f>
+        <v>270</v>
+      </c>
+      <c r="D7" s="25">
+        <f>D5-D6</f>
+        <v>259.09999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="12">
+        <f>info!C19</f>
+        <v>90</v>
+      </c>
+      <c r="D8" s="27">
+        <f>info!D19</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="10">
+        <f>C7-C8</f>
+        <v>180</v>
+      </c>
+      <c r="D9" s="25">
+        <f>D7-D8</f>
+        <v>174.09999999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12">
+        <f>info!C13</f>
+        <v>50</v>
+      </c>
+      <c r="D10" s="27">
+        <f>info!D13</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="10">
+        <f>C9-C10</f>
+        <v>130</v>
+      </c>
+      <c r="D11" s="25">
+        <f>D9-D10</f>
+        <v>134.09999999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="12">
+        <f>info!C21</f>
+        <v>40</v>
+      </c>
+      <c r="D12" s="27">
+        <f>info!D21</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="10">
+        <f>C11-C12</f>
+        <v>90</v>
+      </c>
+      <c r="D13" s="25">
+        <f>D11-D12</f>
+        <v>99.099999999999909</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="12">
+        <f>info!C20</f>
+        <v>36</v>
+      </c>
+      <c r="D14" s="27">
+        <f>info!D20</f>
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="29">
+        <f>C13-C14</f>
+        <v>54</v>
+      </c>
+      <c r="D15" s="30">
+        <f>D13-D14</f>
+        <v>59.499999999999908</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="6">
+        <f>C15</f>
+        <v>54</v>
+      </c>
+      <c r="D17" s="6">
+        <f>D15</f>
+        <v>59.499999999999908</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="13">
+        <f>info!C14</f>
+        <v>29</v>
+      </c>
+      <c r="D18" s="13">
+        <f>info!D14</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="13">
+        <f>C17-C18</f>
+        <v>25</v>
+      </c>
+      <c r="D19" s="13">
+        <f>D17-D18</f>
+        <v>32.499999999999908</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="6">
+        <f>info!C15</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D20" s="6">
+        <f>info!D15</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="6">
+        <f>info!C24</f>
+        <v>23</v>
+      </c>
+      <c r="D21" s="6">
+        <f>info!D24</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6">
+        <f>info!C25</f>
+        <v>2.16</v>
+      </c>
+      <c r="D22" s="6">
+        <f>info!D25</f>
+        <v>2.36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496E1A19-388A-4D80-8983-818C03774E77}">
+  <dimension ref="B3:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2019</v>
+      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>2019</v>
-      </c>
-      <c r="D4">
-        <v>2018</v>
+      <c r="B4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C5">
-        <f>info!D26</f>
-        <v>1500</v>
-      </c>
-      <c r="D5">
-        <f>info!E26</f>
-        <v>1435.8</v>
+        <f>'estado r'!C15</f>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="13">
-        <f>info!D8</f>
-        <v>1230</v>
-      </c>
-      <c r="D6" s="13">
-        <f>info!E8</f>
-        <v>1176.7</v>
+      <c r="B6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C7">
-        <f>C5-C6</f>
-        <v>270</v>
-      </c>
-      <c r="D7">
-        <f>D5-D6</f>
-        <v>259.09999999999991</v>
+        <f>info!C13</f>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <f>info!C11-info!D11</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <f>info!C18-info!D18</f>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>37</v>
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <f>-(info!C10-info!D10)</f>
+        <v>-20</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <f>-(info!C22-info!D22)</f>
+        <v>-70</v>
+      </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>39</v>
+      <c r="B13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5">
+        <f>SUM(C5:C12)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>41</v>
+        <v>59</v>
+      </c>
+      <c r="D15">
+        <f>-(info!C23-info!D23)</f>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <f>info!C16-info!D16</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <f>info!C7-info!D7</f>
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="C19" s="22">
+        <f>-info!C14</f>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="23">
+        <f>SUM(C17:C19)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="22">
+        <f>D13+D15+D20</f>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22">
+        <f>info!D17</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="23">
+        <f>SUM(D21:D22)</f>
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496E1A19-388A-4D80-8983-818C03774E77}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC73DE3-887C-4DF8-B568-B564E6D5F74F}">
+  <dimension ref="B3:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="25">
+        <f>info!D26</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="25">
+        <f>'estado r'!C15</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="25">
+        <f>info!C14</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="24"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30">
+        <f>E4+E5-E6</f>
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/___Administracion_Financiera_I_-Notas___/Ejercicio/Tarea2-DavidCorzo.xlsx
+++ b/___Administracion_Financiera_I_-Notas___/Ejercicio/Tarea2-DavidCorzo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\4_Semestre-[Julio-Noviembre-2020]\____SumaDeCursosUFM2.2____\___Administracion_Financiera_I_-Notas___\Ejercicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FBD5D7-6FD6-4D53-BAE7-1B22698F5D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF1FDD5-D952-42D7-8620-CC5B94436D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="1545" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -563,6 +563,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -572,9 +575,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,7 +1396,7 @@
   <dimension ref="B3:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B15" sqref="B5:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,11 +1405,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="24"/>
@@ -1654,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496E1A19-388A-4D80-8983-818C03774E77}">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,6 +1837,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1844,19 +1845,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC73DE3-887C-4DF8-B568-B564E6D5F74F}">
   <dimension ref="B3:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
